--- a/document/数据库/数据/t_admissions_information .xlsx
+++ b/document/数据库/数据/t_admissions_information .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>student_type</t>
   </si>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>963852741@bit.edu.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,103 +499,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
